--- a/regions/4/biznes seqtori/sakutrebis formis mikhedvit.xlsx
+++ b/regions/4/biznes seqtori/sakutrebis formis mikhedvit.xlsx
@@ -1,23 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E23A6F6-02D8-4B75-80C8-A2B3350DD525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
-  <si>
-    <t>ბიზენს სექტორი</t>
-  </si>
   <si>
     <t>საწარმოთა ბრუნვა აჭარის რეგიონში, საკუთრების ფორმების მიხედვით, მლნ. ლარი</t>
   </si>
@@ -44,11 +42,14 @@
   <si>
     <t>აჭარა</t>
   </si>
+  <si>
+    <t>ბიზნეს სექტორი</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#.0;\-#.0;\-"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
@@ -212,7 +213,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -303,6 +304,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -338,6 +356,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -513,11 +548,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -527,9 +562,9 @@
     <col min="15" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -541,7 +576,7 @@
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -553,9 +588,9 @@
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -567,7 +602,7 @@
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -579,7 +614,7 @@
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="8">
         <v>2006</v>
@@ -626,10 +661,16 @@
       <c r="P5" s="9">
         <v>2020</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q5" s="9">
+        <v>2021</v>
+      </c>
+      <c r="R5" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="10">
         <v>728.5</v>
@@ -676,10 +717,16 @@
       <c r="P6" s="10">
         <v>5593.1</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q6" s="10">
+        <v>7484.5208029942178</v>
+      </c>
+      <c r="R6" s="10">
+        <v>10985.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" s="13">
         <v>501.7</v>
@@ -726,10 +773,16 @@
       <c r="P7" s="13">
         <v>4231.6000000000004</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q7" s="13">
+        <v>5183.6921520926362</v>
+      </c>
+      <c r="R7" s="13">
+        <v>7210.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" s="13">
         <v>114.2</v>
@@ -776,10 +829,16 @@
       <c r="P8" s="13">
         <v>1319.8</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q8" s="13">
+        <v>2214.4639829015809</v>
+      </c>
+      <c r="R8" s="13">
+        <v>3604.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" s="13">
         <v>112.7</v>
@@ -826,8 +885,14 @@
       <c r="P9" s="13">
         <v>41.8</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="13">
+        <v>86.364668000000009</v>
+      </c>
+      <c r="R9" s="13">
+        <v>170.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -839,9 +904,9 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
@@ -853,7 +918,7 @@
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="14"/>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
@@ -865,7 +930,7 @@
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
       <c r="B13" s="8">
         <v>2006</v>
@@ -912,10 +977,16 @@
       <c r="P13" s="9">
         <v>2020</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q13" s="9">
+        <v>2021</v>
+      </c>
+      <c r="R13" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" s="10">
         <v>405.3</v>
@@ -962,10 +1033,16 @@
       <c r="P14" s="10">
         <v>3828.1</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q14" s="10">
+        <v>5258.3248551520001</v>
+      </c>
+      <c r="R14" s="10">
+        <v>6482.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B15" s="13">
         <v>201.4</v>
@@ -1012,10 +1089,16 @@
       <c r="P15" s="13">
         <v>2501.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q15" s="13">
+        <v>3223.7754564459988</v>
+      </c>
+      <c r="R15" s="13">
+        <v>3995.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B16" s="13">
         <v>110.1</v>
@@ -1062,10 +1145,16 @@
       <c r="P16" s="13">
         <v>1233.4000000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q16" s="13">
+        <v>1888.7255193430001</v>
+      </c>
+      <c r="R16" s="13">
+        <v>2276.8000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B17" s="13">
         <v>93.9</v>
@@ -1112,8 +1201,14 @@
       <c r="P17" s="13">
         <v>93.2</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="13">
+        <v>145.823879363</v>
+      </c>
+      <c r="R17" s="13">
+        <v>209.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1125,9 +1220,9 @@
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
     </row>
-    <row r="19" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1139,7 +1234,7 @@
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -1151,7 +1246,7 @@
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
       <c r="B21" s="8">
         <v>2006</v>
@@ -1198,10 +1293,16 @@
       <c r="P21" s="9">
         <v>2020</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q21" s="9">
+        <v>2021</v>
+      </c>
+      <c r="R21" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B22" s="15">
         <v>32271</v>
@@ -1248,10 +1349,16 @@
       <c r="P22" s="16">
         <v>68089.3</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q22" s="16">
+        <v>72973.471604085003</v>
+      </c>
+      <c r="R22" s="16">
+        <v>75232</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B23" s="17">
         <v>17721</v>
@@ -1298,10 +1405,16 @@
       <c r="P23" s="19">
         <v>49304.3</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q23" s="19">
+        <v>52200.011011387993</v>
+      </c>
+      <c r="R23" s="19">
+        <v>53662</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B24" s="17">
         <v>2948</v>
@@ -1348,10 +1461,16 @@
       <c r="P24" s="19">
         <v>14797</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q24" s="19">
+        <v>16315.13639689</v>
+      </c>
+      <c r="R24" s="19">
+        <v>16552</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B25" s="17">
         <v>11602</v>
@@ -1398,8 +1517,14 @@
       <c r="P25" s="19">
         <v>3988</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="19">
+        <v>4458.3241958070003</v>
+      </c>
+      <c r="R25" s="19">
+        <v>5019</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -1411,9 +1536,9 @@
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
     </row>
-    <row r="27" spans="1:16" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1425,7 +1550,7 @@
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -1437,7 +1562,7 @@
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="7"/>
       <c r="B29" s="8">
         <v>2006</v>
@@ -1484,10 +1609,16 @@
       <c r="P29" s="9">
         <v>2020</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q29" s="9">
+        <v>2021</v>
+      </c>
+      <c r="R29" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B30" s="10">
         <v>219.9</v>
@@ -1534,10 +1665,16 @@
       <c r="P30" s="10">
         <v>995.6</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q30" s="10">
+        <v>1080.5999999999999</v>
+      </c>
+      <c r="R30" s="10">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="12" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B31" s="13">
         <v>191.1</v>
@@ -1584,10 +1721,16 @@
       <c r="P31" s="13">
         <v>884.2</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q31" s="13">
+        <v>1010.6</v>
+      </c>
+      <c r="R31" s="13">
+        <v>1116.3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B32" s="13">
         <v>449.6</v>
@@ -1634,10 +1777,16 @@
       <c r="P32" s="13">
         <v>1310.8</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q32" s="13">
+        <v>1233</v>
+      </c>
+      <c r="R32" s="13">
+        <v>1604.4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B33" s="13">
         <v>198.8</v>
@@ -1683,6 +1832,12 @@
       </c>
       <c r="P33" s="13">
         <v>1040.7</v>
+      </c>
+      <c r="Q33" s="13">
+        <v>1218.5</v>
+      </c>
+      <c r="R33" s="13">
+        <v>1532.8</v>
       </c>
     </row>
   </sheetData>
